--- a/data/in/elo_wc.xlsx
+++ b/data/in/elo_wc.xlsx
@@ -4294,7 +4294,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>East Germany</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -4315,7 +4315,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>East Germany</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -4672,7 +4672,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -4693,7 +4693,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -4819,7 +4819,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -4861,7 +4861,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Zambia</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -4882,7 +4882,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Zambia</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -4987,7 +4987,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -5008,7 +5008,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -6142,7 +6142,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -6163,7 +6163,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Chad</t>
+          <t>Burundi</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Burundi</t>
+          <t>Chad</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -6226,7 +6226,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Central African Republic</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -6247,7 +6247,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Central African Republic</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -6982,7 +6982,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Seychelles</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -7003,7 +7003,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Seychelles</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
@@ -8074,7 +8074,7 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Zambia</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
@@ -8095,7 +8095,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Zambia</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
@@ -8788,7 +8788,7 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Tahiti</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
@@ -8809,7 +8809,7 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>Tahiti</t>
+          <t>China</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
@@ -10867,7 +10867,7 @@
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>Aruba</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="E497" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>Aruba</t>
         </is>
       </c>
       <c r="E498" t="inlineStr">
@@ -12169,7 +12169,7 @@
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>China</t>
         </is>
       </c>
       <c r="E559" t="inlineStr">
@@ -12190,7 +12190,7 @@
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="E560" t="inlineStr">
@@ -12211,7 +12211,7 @@
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="E561" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="E562" t="inlineStr">
@@ -13030,7 +13030,7 @@
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>Congo</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="E600" t="inlineStr">
@@ -13051,7 +13051,7 @@
       </c>
       <c r="D601" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Congo</t>
         </is>
       </c>
       <c r="E601" t="inlineStr">
@@ -13492,7 +13492,7 @@
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Turkmenistan</t>
         </is>
       </c>
       <c r="E622" t="inlineStr">
@@ -13513,7 +13513,7 @@
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>Turkmenistan</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="E623" t="inlineStr">
@@ -14500,7 +14500,7 @@
       </c>
       <c r="D670" t="inlineStr">
         <is>
-          <t>Mauritania</t>
+          <t>Vietnam</t>
         </is>
       </c>
       <c r="E670" t="inlineStr">
@@ -14521,7 +14521,7 @@
       </c>
       <c r="D671" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Mauritania</t>
         </is>
       </c>
       <c r="E671" t="inlineStr">
@@ -16327,7 +16327,7 @@
       </c>
       <c r="D757" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="E757" t="inlineStr">
@@ -16348,7 +16348,7 @@
       </c>
       <c r="D758" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="E758" t="inlineStr">
@@ -16369,7 +16369,7 @@
       </c>
       <c r="D759" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="E759" t="inlineStr">
@@ -17629,7 +17629,7 @@
       </c>
       <c r="D819" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Turkmenistan</t>
         </is>
       </c>
       <c r="E819" t="inlineStr">
@@ -17650,7 +17650,7 @@
       </c>
       <c r="D820" t="inlineStr">
         <is>
-          <t>Turkmenistan</t>
+          <t>Fiji</t>
         </is>
       </c>
       <c r="E820" t="inlineStr">
@@ -18553,7 +18553,7 @@
       </c>
       <c r="D863" t="inlineStr">
         <is>
-          <t>Swaziland</t>
+          <t>Benin</t>
         </is>
       </c>
       <c r="E863" t="inlineStr">
@@ -18574,7 +18574,7 @@
       </c>
       <c r="D864" t="inlineStr">
         <is>
-          <t>Benin</t>
+          <t>Swaziland</t>
         </is>
       </c>
       <c r="E864" t="inlineStr">
@@ -19645,7 +19645,7 @@
       </c>
       <c r="D915" t="inlineStr">
         <is>
-          <t>Cook Islands</t>
+          <t>Samoa</t>
         </is>
       </c>
       <c r="E915" t="inlineStr">
@@ -19666,7 +19666,7 @@
       </c>
       <c r="D916" t="inlineStr">
         <is>
-          <t>Samoa</t>
+          <t>Cook Islands</t>
         </is>
       </c>
       <c r="E916" t="inlineStr">
@@ -22249,7 +22249,7 @@
       </c>
       <c r="D1039" t="inlineStr">
         <is>
-          <t>Malawi</t>
+          <t>Botswana</t>
         </is>
       </c>
       <c r="E1039" t="inlineStr">
@@ -22270,7 +22270,7 @@
       </c>
       <c r="D1040" t="inlineStr">
         <is>
-          <t>Botswana</t>
+          <t>Malawi</t>
         </is>
       </c>
       <c r="E1040" t="inlineStr">
@@ -24622,7 +24622,7 @@
       </c>
       <c r="D1152" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="E1152" t="inlineStr">
@@ -24643,7 +24643,7 @@
       </c>
       <c r="D1153" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="E1153" t="inlineStr">
@@ -24916,7 +24916,7 @@
       </c>
       <c r="D1166" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="E1166" t="inlineStr">
@@ -24937,7 +24937,7 @@
       </c>
       <c r="D1167" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="E1167" t="inlineStr">
@@ -25714,7 +25714,7 @@
       </c>
       <c r="D1204" t="inlineStr">
         <is>
-          <t>Iraq</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="E1204" t="inlineStr">
@@ -25735,7 +25735,7 @@
       </c>
       <c r="D1205" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="E1205" t="inlineStr">
@@ -28318,7 +28318,7 @@
       </c>
       <c r="D1328" t="inlineStr">
         <is>
-          <t>Samoa</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="E1328" t="inlineStr">
@@ -28339,7 +28339,7 @@
       </c>
       <c r="D1329" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>Samoa</t>
         </is>
       </c>
       <c r="E1329" t="inlineStr">
@@ -30292,7 +30292,7 @@
       </c>
       <c r="D1422" t="inlineStr">
         <is>
-          <t>Cape Verde</t>
+          <t>Kuwait</t>
         </is>
       </c>
       <c r="E1422" t="inlineStr">
@@ -30313,7 +30313,7 @@
       </c>
       <c r="D1423" t="inlineStr">
         <is>
-          <t>Kuwait</t>
+          <t>Cape Verde</t>
         </is>
       </c>
       <c r="E1423" t="inlineStr">
@@ -30754,7 +30754,7 @@
       </c>
       <c r="D1444" t="inlineStr">
         <is>
-          <t>Lebanon</t>
+          <t>Northern Ireland</t>
         </is>
       </c>
       <c r="E1444" t="inlineStr">
@@ -30775,7 +30775,7 @@
       </c>
       <c r="D1445" t="inlineStr">
         <is>
-          <t>Northern Ireland</t>
+          <t>Lebanon</t>
         </is>
       </c>
       <c r="E1445" t="inlineStr">
@@ -30922,7 +30922,7 @@
       </c>
       <c r="D1452" t="inlineStr">
         <is>
-          <t>Rwanda</t>
+          <t>Sierra Leone</t>
         </is>
       </c>
       <c r="E1452" t="inlineStr">
@@ -30943,7 +30943,7 @@
       </c>
       <c r="D1453" t="inlineStr">
         <is>
-          <t>Sierra Leone</t>
+          <t>Rwanda</t>
         </is>
       </c>
       <c r="E1453" t="inlineStr">
@@ -38839,7 +38839,7 @@
       </c>
       <c r="D1829" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Montenegro</t>
         </is>
       </c>
       <c r="E1829" t="inlineStr">
@@ -38860,7 +38860,7 @@
       </c>
       <c r="D1830" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="E1830" t="inlineStr">
@@ -39070,7 +39070,7 @@
       </c>
       <c r="D1840" t="inlineStr">
         <is>
-          <t>Gabon</t>
+          <t>Cape Verde</t>
         </is>
       </c>
       <c r="E1840" t="inlineStr">
@@ -39091,7 +39091,7 @@
       </c>
       <c r="D1841" t="inlineStr">
         <is>
-          <t>Cape Verde</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="E1841" t="inlineStr">
@@ -39112,7 +39112,7 @@
       </c>
       <c r="D1842" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Gabon</t>
         </is>
       </c>
       <c r="E1842" t="inlineStr">
@@ -39637,7 +39637,7 @@
       </c>
       <c r="D1867" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>North Korea</t>
         </is>
       </c>
       <c r="E1867" t="inlineStr">
@@ -39658,7 +39658,7 @@
       </c>
       <c r="D1868" t="inlineStr">
         <is>
-          <t>North Korea</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="E1868" t="inlineStr">
@@ -39721,7 +39721,7 @@
       </c>
       <c r="D1871" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Libya</t>
         </is>
       </c>
       <c r="E1871" t="inlineStr">
@@ -39742,7 +39742,7 @@
       </c>
       <c r="D1872" t="inlineStr">
         <is>
-          <t>Libya</t>
+          <t>Ethiopia</t>
         </is>
       </c>
       <c r="E1872" t="inlineStr">
@@ -39763,7 +39763,7 @@
       </c>
       <c r="D1873" t="inlineStr">
         <is>
-          <t>Ethiopia</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="E1873" t="inlineStr">
@@ -39805,7 +39805,7 @@
       </c>
       <c r="D1875" t="inlineStr">
         <is>
-          <t>Sierra Leone</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="E1875" t="inlineStr">
@@ -39826,7 +39826,7 @@
       </c>
       <c r="D1876" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Sierra Leone</t>
         </is>
       </c>
       <c r="E1876" t="inlineStr">
@@ -39973,7 +39973,7 @@
       </c>
       <c r="D1883" t="inlineStr">
         <is>
-          <t>Kuwait</t>
+          <t>Tanzania</t>
         </is>
       </c>
       <c r="E1883" t="inlineStr">
@@ -39994,7 +39994,7 @@
       </c>
       <c r="D1884" t="inlineStr">
         <is>
-          <t>Tanzania</t>
+          <t>Kuwait</t>
         </is>
       </c>
       <c r="E1884" t="inlineStr">
@@ -41695,7 +41695,7 @@
       </c>
       <c r="D1965" t="inlineStr">
         <is>
-          <t>Brunei</t>
+          <t>British Virgin Islands</t>
         </is>
       </c>
       <c r="E1965" t="inlineStr">
@@ -41716,7 +41716,7 @@
       </c>
       <c r="D1966" t="inlineStr">
         <is>
-          <t>British Virgin Islands</t>
+          <t>Brunei</t>
         </is>
       </c>
       <c r="E1966" t="inlineStr">
